--- a/Financials/Yearly/CHU_YR_FIN.xlsx
+++ b/Financials/Yearly/CHU_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360F3E07-5239-44DD-ACCE-BBA6139F15E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHU" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CHU</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,33 +689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,88 +742,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39968400</v>
+        <v>40787400</v>
       </c>
       <c r="E8" s="3">
-        <v>39876500</v>
+        <v>40693600</v>
       </c>
       <c r="F8" s="3">
-        <v>40291200</v>
+        <v>41116800</v>
       </c>
       <c r="G8" s="3">
-        <v>41401200</v>
+        <v>42249500</v>
       </c>
       <c r="H8" s="3">
-        <v>42907400</v>
+        <v>43786600</v>
       </c>
       <c r="I8" s="3">
-        <v>36201300</v>
+        <v>36943100</v>
       </c>
       <c r="J8" s="3">
-        <v>30419200</v>
+        <v>31042500</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18027400</v>
+        <v>18396800</v>
       </c>
       <c r="E9" s="3">
-        <v>19140900</v>
+        <v>19533100</v>
       </c>
       <c r="F9" s="3">
-        <v>18598600</v>
+        <v>18979700</v>
       </c>
       <c r="G9" s="3">
-        <v>19024000</v>
+        <v>19413800</v>
       </c>
       <c r="H9" s="3">
-        <v>17063000</v>
+        <v>17412600</v>
       </c>
       <c r="I9" s="3">
-        <v>13995700</v>
+        <v>14282500</v>
       </c>
       <c r="J9" s="3">
-        <v>10989900</v>
+        <v>11215000</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21941000</v>
+        <v>22390600</v>
       </c>
       <c r="E10" s="3">
-        <v>20735600</v>
+        <v>21160400</v>
       </c>
       <c r="F10" s="3">
-        <v>21692600</v>
+        <v>22137100</v>
       </c>
       <c r="G10" s="3">
-        <v>22377200</v>
+        <v>22835700</v>
       </c>
       <c r="H10" s="3">
-        <v>25844400</v>
+        <v>26373900</v>
       </c>
       <c r="I10" s="3">
-        <v>22205600</v>
+        <v>22660600</v>
       </c>
       <c r="J10" s="3">
-        <v>19429300</v>
+        <v>19827400</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,7 +836,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,7 +863,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,7 +890,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -866,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-1344600</v>
+        <v>-1372200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -882,34 +917,34 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11269700</v>
+        <v>11500600</v>
       </c>
       <c r="E15" s="3">
-        <v>11169800</v>
+        <v>11398600</v>
       </c>
       <c r="F15" s="3">
-        <v>11160000</v>
+        <v>11388700</v>
       </c>
       <c r="G15" s="3">
-        <v>10742600</v>
+        <v>10962700</v>
       </c>
       <c r="H15" s="3">
-        <v>9917700</v>
+        <v>10121000</v>
       </c>
       <c r="I15" s="3">
-        <v>8879500</v>
+        <v>9061500</v>
       </c>
       <c r="J15" s="3">
-        <v>8438000</v>
+        <v>8610900</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,61 +954,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39396400</v>
+        <v>40203700</v>
       </c>
       <c r="E17" s="3">
-        <v>39484800</v>
+        <v>40293900</v>
       </c>
       <c r="F17" s="3">
-        <v>37381200</v>
+        <v>38147200</v>
       </c>
       <c r="G17" s="3">
-        <v>38652100</v>
+        <v>39444100</v>
       </c>
       <c r="H17" s="3">
-        <v>40614400</v>
+        <v>41446600</v>
       </c>
       <c r="I17" s="3">
-        <v>34514000</v>
+        <v>35221300</v>
       </c>
       <c r="J17" s="3">
-        <v>29635100</v>
+        <v>30242400</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>572000</v>
+        <v>583700</v>
       </c>
       <c r="E18" s="3">
-        <v>391600</v>
+        <v>399700</v>
       </c>
       <c r="F18" s="3">
-        <v>2910100</v>
+        <v>2969700</v>
       </c>
       <c r="G18" s="3">
-        <v>2749100</v>
+        <v>2805400</v>
       </c>
       <c r="H18" s="3">
-        <v>2293000</v>
+        <v>2340000</v>
       </c>
       <c r="I18" s="3">
-        <v>1687300</v>
+        <v>1721900</v>
       </c>
       <c r="J18" s="3">
-        <v>784000</v>
+        <v>800100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,142 +1021,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>566700</v>
+        <v>578400</v>
       </c>
       <c r="E20" s="3">
-        <v>436100</v>
+        <v>445100</v>
       </c>
       <c r="F20" s="3">
-        <v>-209700</v>
+        <v>-214000</v>
       </c>
       <c r="G20" s="3">
-        <v>199100</v>
+        <v>203200</v>
       </c>
       <c r="H20" s="3">
-        <v>288200</v>
+        <v>294100</v>
       </c>
       <c r="I20" s="3">
-        <v>152400</v>
+        <v>155500</v>
       </c>
       <c r="J20" s="3">
-        <v>369500</v>
+        <v>377100</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12441700</v>
+        <v>12682800</v>
       </c>
       <c r="E21" s="3">
-        <v>12030600</v>
+        <v>12263300</v>
       </c>
       <c r="F21" s="3">
-        <v>13893300</v>
+        <v>14164300</v>
       </c>
       <c r="G21" s="3">
-        <v>13722500</v>
+        <v>13990500</v>
       </c>
       <c r="H21" s="3">
-        <v>12528300</v>
+        <v>12772800</v>
       </c>
       <c r="I21" s="3">
-        <v>10745500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>9616500</v>
+        <v>10954700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>761600</v>
+        <v>777200</v>
       </c>
       <c r="E22" s="3">
-        <v>713800</v>
+        <v>728400</v>
       </c>
       <c r="F22" s="3">
-        <v>659200</v>
+        <v>672700</v>
       </c>
       <c r="G22" s="3">
-        <v>631300</v>
+        <v>644200</v>
       </c>
       <c r="H22" s="3">
-        <v>586800</v>
+        <v>598800</v>
       </c>
       <c r="I22" s="3">
-        <v>455100</v>
+        <v>464400</v>
       </c>
       <c r="J22" s="3">
-        <v>339400</v>
+        <v>346400</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>377100</v>
+        <v>384800</v>
       </c>
       <c r="E23" s="3">
-        <v>114000</v>
+        <v>116400</v>
       </c>
       <c r="F23" s="3">
-        <v>2041100</v>
+        <v>2082900</v>
       </c>
       <c r="G23" s="3">
-        <v>2316800</v>
+        <v>2364300</v>
       </c>
       <c r="H23" s="3">
-        <v>1994400</v>
+        <v>2035300</v>
       </c>
       <c r="I23" s="3">
-        <v>1384600</v>
+        <v>1413000</v>
       </c>
       <c r="J23" s="3">
-        <v>814100</v>
+        <v>830800</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108100</v>
+        <v>110300</v>
       </c>
       <c r="E24" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="F24" s="3">
-        <v>505100</v>
+        <v>515400</v>
       </c>
       <c r="G24" s="3">
-        <v>563700</v>
+        <v>575200</v>
       </c>
       <c r="H24" s="3">
-        <v>480800</v>
+        <v>490600</v>
       </c>
       <c r="I24" s="3">
-        <v>352700</v>
+        <v>359900</v>
       </c>
       <c r="J24" s="3">
-        <v>199400</v>
+        <v>203500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,61 +1183,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>269000</v>
+        <v>274600</v>
       </c>
       <c r="E26" s="3">
-        <v>91600</v>
+        <v>93500</v>
       </c>
       <c r="F26" s="3">
-        <v>1536000</v>
+        <v>1567500</v>
       </c>
       <c r="G26" s="3">
-        <v>1753200</v>
+        <v>1789100</v>
       </c>
       <c r="H26" s="3">
-        <v>1513600</v>
+        <v>1544700</v>
       </c>
       <c r="I26" s="3">
-        <v>1032000</v>
+        <v>1053100</v>
       </c>
       <c r="J26" s="3">
-        <v>614700</v>
+        <v>627300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>265800</v>
+        <v>271300</v>
       </c>
       <c r="E27" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="F27" s="3">
-        <v>1536000</v>
+        <v>1567500</v>
       </c>
       <c r="G27" s="3">
-        <v>1753200</v>
+        <v>1789100</v>
       </c>
       <c r="H27" s="3">
-        <v>1513600</v>
+        <v>1544700</v>
       </c>
       <c r="I27" s="3">
-        <v>1032000</v>
+        <v>1053100</v>
       </c>
       <c r="J27" s="3">
-        <v>614700</v>
+        <v>627300</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1291,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1318,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,61 +1345,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-566700</v>
+        <v>-578400</v>
       </c>
       <c r="E32" s="3">
-        <v>-436100</v>
+        <v>-445100</v>
       </c>
       <c r="F32" s="3">
-        <v>209700</v>
+        <v>214000</v>
       </c>
       <c r="G32" s="3">
-        <v>-199100</v>
+        <v>-203200</v>
       </c>
       <c r="H32" s="3">
-        <v>-288200</v>
+        <v>-294100</v>
       </c>
       <c r="I32" s="3">
-        <v>-152400</v>
+        <v>-155500</v>
       </c>
       <c r="J32" s="3">
-        <v>-369500</v>
+        <v>-377100</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>265800</v>
+        <v>271300</v>
       </c>
       <c r="E33" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="F33" s="3">
-        <v>1536000</v>
+        <v>1567500</v>
       </c>
       <c r="G33" s="3">
-        <v>1753200</v>
+        <v>1789100</v>
       </c>
       <c r="H33" s="3">
-        <v>1513600</v>
+        <v>1544700</v>
       </c>
       <c r="I33" s="3">
-        <v>1032000</v>
+        <v>1053100</v>
       </c>
       <c r="J33" s="3">
-        <v>614700</v>
+        <v>627300</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,39 +1426,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>265800</v>
+        <v>271300</v>
       </c>
       <c r="E35" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="F35" s="3">
-        <v>1536000</v>
+        <v>1567500</v>
       </c>
       <c r="G35" s="3">
-        <v>1753200</v>
+        <v>1789100</v>
       </c>
       <c r="H35" s="3">
-        <v>1513600</v>
+        <v>1544700</v>
       </c>
       <c r="I35" s="3">
-        <v>1032000</v>
+        <v>1053100</v>
       </c>
       <c r="J35" s="3">
-        <v>614700</v>
+        <v>627300</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1485,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1498,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,250 +1511,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4775300</v>
+        <v>4873200</v>
       </c>
       <c r="E41" s="3">
-        <v>3436900</v>
+        <v>3507400</v>
       </c>
       <c r="F41" s="3">
-        <v>3163800</v>
+        <v>3228700</v>
       </c>
       <c r="G41" s="3">
-        <v>3680500</v>
+        <v>3756000</v>
       </c>
       <c r="H41" s="3">
-        <v>3127600</v>
+        <v>3191700</v>
       </c>
       <c r="I41" s="3">
-        <v>2654100</v>
+        <v>2708500</v>
       </c>
       <c r="J41" s="3">
-        <v>2196900</v>
+        <v>2241900</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>826900</v>
+        <v>843900</v>
       </c>
       <c r="E42" s="3">
-        <v>273000</v>
+        <v>278600</v>
       </c>
       <c r="F42" s="3">
-        <v>44800</v>
+        <v>45700</v>
       </c>
       <c r="G42" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="H42" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I42" s="3">
         <v>600</v>
       </c>
       <c r="J42" s="3">
-        <v>41700</v>
+        <v>42600</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4265300</v>
+        <v>4352700</v>
       </c>
       <c r="E43" s="3">
-        <v>7049300</v>
+        <v>7193700</v>
       </c>
       <c r="F43" s="3">
-        <v>3672100</v>
+        <v>3747400</v>
       </c>
       <c r="G43" s="3">
-        <v>2857600</v>
+        <v>2916100</v>
       </c>
       <c r="H43" s="3">
-        <v>2750400</v>
+        <v>2806700</v>
       </c>
       <c r="I43" s="3">
-        <v>2110000</v>
+        <v>2153300</v>
       </c>
       <c r="J43" s="3">
-        <v>1834600</v>
+        <v>1872200</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>325600</v>
+        <v>332300</v>
       </c>
       <c r="E44" s="3">
-        <v>353500</v>
+        <v>360800</v>
       </c>
       <c r="F44" s="3">
-        <v>573900</v>
+        <v>585600</v>
       </c>
       <c r="G44" s="3">
-        <v>636700</v>
+        <v>649700</v>
       </c>
       <c r="H44" s="3">
-        <v>805100</v>
+        <v>821600</v>
       </c>
       <c r="I44" s="3">
-        <v>843900</v>
+        <v>861200</v>
       </c>
       <c r="J44" s="3">
-        <v>676400</v>
+        <v>690300</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>964500</v>
+        <v>984300</v>
       </c>
       <c r="E45" s="3">
-        <v>844200</v>
+        <v>861500</v>
       </c>
       <c r="F45" s="3">
-        <v>786900</v>
+        <v>803000</v>
       </c>
       <c r="G45" s="3">
-        <v>1044600</v>
+        <v>1066000</v>
       </c>
       <c r="H45" s="3">
-        <v>902000</v>
+        <v>920400</v>
       </c>
       <c r="I45" s="3">
-        <v>1397300</v>
+        <v>1425900</v>
       </c>
       <c r="J45" s="3">
-        <v>893500</v>
+        <v>911800</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11157700</v>
+        <v>11386300</v>
       </c>
       <c r="E46" s="3">
-        <v>11957000</v>
+        <v>12202000</v>
       </c>
       <c r="F46" s="3">
-        <v>8241500</v>
+        <v>8410400</v>
       </c>
       <c r="G46" s="3">
-        <v>8227600</v>
+        <v>8396100</v>
       </c>
       <c r="H46" s="3">
-        <v>7592900</v>
+        <v>7748500</v>
       </c>
       <c r="I46" s="3">
-        <v>7005900</v>
+        <v>7149500</v>
       </c>
       <c r="J46" s="3">
-        <v>5643100</v>
+        <v>5758800</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5800800</v>
+        <v>5919600</v>
       </c>
       <c r="E47" s="3">
-        <v>5489800</v>
+        <v>5602300</v>
       </c>
       <c r="F47" s="3">
-        <v>8165700</v>
+        <v>8333100</v>
       </c>
       <c r="G47" s="3">
-        <v>1300000</v>
+        <v>1326600</v>
       </c>
       <c r="H47" s="3">
-        <v>944900</v>
+        <v>964200</v>
       </c>
       <c r="I47" s="3">
-        <v>809600</v>
+        <v>826200</v>
       </c>
       <c r="J47" s="3">
-        <v>1010900</v>
+        <v>1031600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>60585600</v>
+        <v>61827000</v>
       </c>
       <c r="E48" s="3">
-        <v>65605700</v>
+        <v>66950000</v>
       </c>
       <c r="F48" s="3">
-        <v>66117000</v>
+        <v>67471800</v>
       </c>
       <c r="G48" s="3">
-        <v>63745000</v>
+        <v>65051200</v>
       </c>
       <c r="H48" s="3">
-        <v>62771200</v>
+        <v>64057500</v>
       </c>
       <c r="I48" s="3">
-        <v>63785300</v>
+        <v>65092300</v>
       </c>
       <c r="J48" s="3">
-        <v>56647300</v>
+        <v>57808100</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2001000</v>
+        <v>2042000</v>
       </c>
       <c r="E49" s="3">
-        <v>2020200</v>
+        <v>2061600</v>
       </c>
       <c r="F49" s="3">
-        <v>1961100</v>
+        <v>2001300</v>
       </c>
       <c r="G49" s="3">
-        <v>1726400</v>
+        <v>1761800</v>
       </c>
       <c r="H49" s="3">
-        <v>1584000</v>
+        <v>1616500</v>
       </c>
       <c r="I49" s="3">
-        <v>1328500</v>
+        <v>1355700</v>
       </c>
       <c r="J49" s="3">
-        <v>1203700</v>
+        <v>1228400</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1781,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,34 +1808,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3638500</v>
+        <v>3713100</v>
       </c>
       <c r="E52" s="3">
-        <v>4243800</v>
+        <v>4330800</v>
       </c>
       <c r="F52" s="3">
-        <v>4277200</v>
+        <v>4364900</v>
       </c>
       <c r="G52" s="3">
-        <v>4270800</v>
+        <v>4358400</v>
       </c>
       <c r="H52" s="3">
-        <v>4064300</v>
+        <v>4147600</v>
       </c>
       <c r="I52" s="3">
-        <v>2130500</v>
+        <v>2174200</v>
       </c>
       <c r="J52" s="3">
-        <v>1844900</v>
+        <v>1882700</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,34 +1862,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>83183500</v>
+        <v>84888000</v>
       </c>
       <c r="E54" s="3">
-        <v>89316400</v>
+        <v>91146600</v>
       </c>
       <c r="F54" s="3">
-        <v>88762600</v>
+        <v>90581400</v>
       </c>
       <c r="G54" s="3">
-        <v>79269800</v>
+        <v>80894100</v>
       </c>
       <c r="H54" s="3">
-        <v>76957300</v>
+        <v>78534300</v>
       </c>
       <c r="I54" s="3">
-        <v>75059900</v>
+        <v>76598000</v>
       </c>
       <c r="J54" s="3">
-        <v>66350000</v>
+        <v>67709500</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1902,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,169 +1915,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12658400</v>
+        <v>12917800</v>
       </c>
       <c r="E57" s="3">
-        <v>16105900</v>
+        <v>16436000</v>
       </c>
       <c r="F57" s="3">
-        <v>19814400</v>
+        <v>20220400</v>
       </c>
       <c r="G57" s="3">
-        <v>14694400</v>
+        <v>14995500</v>
       </c>
       <c r="H57" s="3">
-        <v>11377400</v>
+        <v>11610600</v>
       </c>
       <c r="I57" s="3">
-        <v>12694300</v>
+        <v>12954400</v>
       </c>
       <c r="J57" s="3">
-        <v>11237500</v>
+        <v>11467800</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7318300</v>
+        <v>7468300</v>
       </c>
       <c r="E58" s="3">
-        <v>19585800</v>
+        <v>19987100</v>
       </c>
       <c r="F58" s="3">
-        <v>15510700</v>
+        <v>15828500</v>
       </c>
       <c r="G58" s="3">
-        <v>16413500</v>
+        <v>16749800</v>
       </c>
       <c r="H58" s="3">
-        <v>18828800</v>
+        <v>19214600</v>
       </c>
       <c r="I58" s="3">
-        <v>20249700</v>
+        <v>20664600</v>
       </c>
       <c r="J58" s="3">
-        <v>10234200</v>
+        <v>10443900</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15307800</v>
+        <v>15621500</v>
       </c>
       <c r="E59" s="3">
-        <v>14140600</v>
+        <v>14430300</v>
       </c>
       <c r="F59" s="3">
-        <v>13550100</v>
+        <v>13827800</v>
       </c>
       <c r="G59" s="3">
-        <v>11346000</v>
+        <v>11578500</v>
       </c>
       <c r="H59" s="3">
-        <v>12730400</v>
+        <v>12991200</v>
       </c>
       <c r="I59" s="3">
-        <v>11022400</v>
+        <v>11248300</v>
       </c>
       <c r="J59" s="3">
-        <v>9639700</v>
+        <v>9837200</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35284500</v>
+        <v>36007500</v>
       </c>
       <c r="E60" s="3">
-        <v>49832300</v>
+        <v>50853400</v>
       </c>
       <c r="F60" s="3">
-        <v>48875200</v>
+        <v>49876700</v>
       </c>
       <c r="G60" s="3">
-        <v>42453900</v>
+        <v>43323800</v>
       </c>
       <c r="H60" s="3">
-        <v>42936600</v>
+        <v>43816400</v>
       </c>
       <c r="I60" s="3">
-        <v>43966400</v>
+        <v>44867300</v>
       </c>
       <c r="J60" s="3">
-        <v>31111400</v>
+        <v>31748900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3153600</v>
+        <v>3218300</v>
       </c>
       <c r="E61" s="3">
-        <v>5901400</v>
+        <v>6022300</v>
       </c>
       <c r="F61" s="3">
-        <v>5954500</v>
+        <v>6076500</v>
       </c>
       <c r="G61" s="3">
-        <v>3490000</v>
+        <v>3561500</v>
       </c>
       <c r="H61" s="3">
-        <v>1997900</v>
+        <v>2038900</v>
       </c>
       <c r="I61" s="3">
-        <v>368800</v>
+        <v>376400</v>
       </c>
       <c r="J61" s="3">
-        <v>5017600</v>
+        <v>5120400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>484100</v>
+        <v>494100</v>
       </c>
       <c r="E62" s="3">
-        <v>470900</v>
+        <v>480600</v>
       </c>
       <c r="F62" s="3">
-        <v>307100</v>
+        <v>313400</v>
       </c>
       <c r="G62" s="3">
-        <v>234600</v>
+        <v>239400</v>
       </c>
       <c r="H62" s="3">
-        <v>188300</v>
+        <v>192200</v>
       </c>
       <c r="I62" s="3">
-        <v>256400</v>
+        <v>261600</v>
       </c>
       <c r="J62" s="3">
-        <v>277200</v>
+        <v>282900</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2104,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2131,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,34 +2158,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38965500</v>
+        <v>39763900</v>
       </c>
       <c r="E66" s="3">
-        <v>56244600</v>
+        <v>57397100</v>
       </c>
       <c r="F66" s="3">
-        <v>55136900</v>
+        <v>56266700</v>
       </c>
       <c r="G66" s="3">
-        <v>46178500</v>
+        <v>47124800</v>
       </c>
       <c r="H66" s="3">
-        <v>45122900</v>
+        <v>46047500</v>
       </c>
       <c r="I66" s="3">
-        <v>44591600</v>
+        <v>45505300</v>
       </c>
       <c r="J66" s="3">
-        <v>36406200</v>
+        <v>37152200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2198,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2252,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,7 +2279,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,34 +2306,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8287800</v>
+        <v>8457600</v>
       </c>
       <c r="E72" s="3">
-        <v>8033700</v>
+        <v>8198300</v>
       </c>
       <c r="F72" s="3">
-        <v>8510600</v>
+        <v>8685000</v>
       </c>
       <c r="G72" s="3">
-        <v>7572000</v>
+        <v>7727100</v>
       </c>
       <c r="H72" s="3">
-        <v>6016000</v>
+        <v>6139300</v>
       </c>
       <c r="I72" s="3">
-        <v>5373800</v>
+        <v>5483900</v>
       </c>
       <c r="J72" s="3">
-        <v>4684700</v>
+        <v>4780700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2387,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,34 +2414,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44218000</v>
+        <v>45124100</v>
       </c>
       <c r="E76" s="3">
-        <v>33071800</v>
+        <v>33749500</v>
       </c>
       <c r="F76" s="3">
-        <v>33625700</v>
+        <v>34314800</v>
       </c>
       <c r="G76" s="3">
-        <v>33091300</v>
+        <v>33769400</v>
       </c>
       <c r="H76" s="3">
-        <v>31834500</v>
+        <v>32486800</v>
       </c>
       <c r="I76" s="3">
-        <v>30468300</v>
+        <v>31092600</v>
       </c>
       <c r="J76" s="3">
-        <v>29943700</v>
+        <v>30557300</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,12 +2468,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2465,34 +2500,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>265800</v>
+        <v>271300</v>
       </c>
       <c r="E81" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="F81" s="3">
-        <v>1536000</v>
+        <v>1567500</v>
       </c>
       <c r="G81" s="3">
-        <v>1753200</v>
+        <v>1789100</v>
       </c>
       <c r="H81" s="3">
-        <v>1513600</v>
+        <v>1544700</v>
       </c>
       <c r="I81" s="3">
-        <v>1032000</v>
+        <v>1053100</v>
       </c>
       <c r="J81" s="3">
-        <v>614700</v>
+        <v>627300</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,34 +2540,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11269700</v>
+        <v>11500600</v>
       </c>
       <c r="E83" s="3">
-        <v>11169800</v>
+        <v>11398600</v>
       </c>
       <c r="F83" s="3">
-        <v>11160000</v>
+        <v>11388700</v>
       </c>
       <c r="G83" s="3">
-        <v>10742600</v>
+        <v>10962700</v>
       </c>
       <c r="H83" s="3">
-        <v>9917700</v>
+        <v>10121000</v>
       </c>
       <c r="I83" s="3">
-        <v>8879500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8438000</v>
+        <v>9061500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,7 +2594,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2621,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,7 +2648,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2675,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,34 +2702,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12369400</v>
+        <v>12622900</v>
       </c>
       <c r="E89" s="3">
-        <v>10848100</v>
+        <v>11070300</v>
       </c>
       <c r="F89" s="3">
-        <v>12259900</v>
+        <v>12511100</v>
       </c>
       <c r="G89" s="3">
-        <v>12811500</v>
+        <v>13074000</v>
       </c>
       <c r="H89" s="3">
-        <v>11413600</v>
+        <v>11647500</v>
       </c>
       <c r="I89" s="3">
-        <v>10270300</v>
+        <v>10480700</v>
       </c>
       <c r="J89" s="3">
-        <v>9669800</v>
+        <v>9867900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,34 +2742,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9553700</v>
+        <v>-9749500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14889900</v>
+        <v>-15195000</v>
       </c>
       <c r="F91" s="3">
-        <v>-13526000</v>
+        <v>-13803200</v>
       </c>
       <c r="G91" s="3">
-        <v>-10673500</v>
+        <v>-10892300</v>
       </c>
       <c r="H91" s="3">
-        <v>-11461000</v>
+        <v>-11695900</v>
       </c>
       <c r="I91" s="3">
-        <v>-12620900</v>
+        <v>-12879500</v>
       </c>
       <c r="J91" s="3">
-        <v>-11323300</v>
+        <v>-11555400</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2796,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,34 +2823,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6884100</v>
+        <v>-7025100</v>
       </c>
       <c r="E94" s="3">
-        <v>-13924800</v>
+        <v>-14210100</v>
       </c>
       <c r="F94" s="3">
-        <v>-13285600</v>
+        <v>-13557800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10953600</v>
+        <v>-11178100</v>
       </c>
       <c r="H94" s="3">
-        <v>-11214100</v>
+        <v>-11443900</v>
       </c>
       <c r="I94" s="3">
-        <v>-14467400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-12066300</v>
+        <v>-14763800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,7 +2863,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2836,26 +2871,26 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-592000</v>
+        <v>-604200</v>
       </c>
       <c r="F96" s="3">
-        <v>-675200</v>
+        <v>-689100</v>
       </c>
       <c r="G96" s="3">
-        <v>-534700</v>
+        <v>-545700</v>
       </c>
       <c r="H96" s="3">
-        <v>-390600</v>
+        <v>-398600</v>
       </c>
       <c r="I96" s="3">
-        <v>-332000</v>
+        <v>-338800</v>
       </c>
       <c r="J96" s="3">
-        <v>-301000</v>
+        <v>-307200</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2917,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,7 +2944,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,51 +2971,51 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4132200</v>
+        <v>-4216900</v>
       </c>
       <c r="E100" s="3">
-        <v>3327000</v>
+        <v>3395200</v>
       </c>
       <c r="F100" s="3">
-        <v>498400</v>
+        <v>508600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1304900</v>
+        <v>-1331700</v>
       </c>
       <c r="H100" s="3">
-        <v>280100</v>
+        <v>285800</v>
       </c>
       <c r="I100" s="3">
-        <v>4654300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1307100</v>
+        <v>4749700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="E101" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="F101" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -2990,30 +3025,30 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1338400</v>
+        <v>1365800</v>
       </c>
       <c r="E102" s="3">
-        <v>273100</v>
+        <v>278700</v>
       </c>
       <c r="F102" s="3">
-        <v>-516700</v>
+        <v>-527300</v>
       </c>
       <c r="G102" s="3">
-        <v>552900</v>
+        <v>564300</v>
       </c>
       <c r="H102" s="3">
-        <v>473500</v>
+        <v>483200</v>
       </c>
       <c r="I102" s="3">
-        <v>457200</v>
+        <v>466600</v>
       </c>
       <c r="J102" s="3">
-        <v>-1089400</v>
+        <v>-1111700</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/CHU_YR_FIN.xlsx
+++ b/Financials/Yearly/CHU_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360F3E07-5239-44DD-ACCE-BBA6139F15E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CHU" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CHU</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,141 +654,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40787400</v>
+        <v>41735000</v>
       </c>
       <c r="E8" s="3">
-        <v>40693600</v>
+        <v>39432500</v>
       </c>
       <c r="F8" s="3">
-        <v>41116800</v>
+        <v>39341800</v>
       </c>
       <c r="G8" s="3">
-        <v>42249500</v>
+        <v>39751000</v>
       </c>
       <c r="H8" s="3">
-        <v>43786600</v>
+        <v>40846000</v>
       </c>
       <c r="I8" s="3">
-        <v>36943100</v>
+        <v>42332100</v>
       </c>
       <c r="J8" s="3">
+        <v>35715900</v>
+      </c>
+      <c r="K8" s="3">
         <v>31042500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18396800</v>
+        <v>18057500</v>
       </c>
       <c r="E9" s="3">
-        <v>19533100</v>
+        <v>17785600</v>
       </c>
       <c r="F9" s="3">
-        <v>18979700</v>
+        <v>18884300</v>
       </c>
       <c r="G9" s="3">
-        <v>19413800</v>
+        <v>18349200</v>
       </c>
       <c r="H9" s="3">
-        <v>17412600</v>
+        <v>18768900</v>
       </c>
       <c r="I9" s="3">
-        <v>14282500</v>
+        <v>16834200</v>
       </c>
       <c r="J9" s="3">
+        <v>13808100</v>
+      </c>
+      <c r="K9" s="3">
         <v>11215000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22390600</v>
+        <v>23677500</v>
       </c>
       <c r="E10" s="3">
-        <v>21160400</v>
+        <v>21646800</v>
       </c>
       <c r="F10" s="3">
-        <v>22137100</v>
+        <v>20457500</v>
       </c>
       <c r="G10" s="3">
-        <v>22835700</v>
+        <v>21401800</v>
       </c>
       <c r="H10" s="3">
-        <v>26373900</v>
+        <v>22077100</v>
       </c>
       <c r="I10" s="3">
-        <v>22660600</v>
+        <v>25497800</v>
       </c>
       <c r="J10" s="3">
+        <v>21907800</v>
+      </c>
+      <c r="K10" s="3">
         <v>19827400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-1372200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-1326600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -915,36 +899,42 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11500600</v>
+        <v>10872500</v>
       </c>
       <c r="E15" s="3">
-        <v>11398600</v>
+        <v>11118600</v>
       </c>
       <c r="F15" s="3">
-        <v>11388700</v>
+        <v>11020000</v>
       </c>
       <c r="G15" s="3">
-        <v>10962700</v>
+        <v>11010400</v>
       </c>
       <c r="H15" s="3">
-        <v>10121000</v>
+        <v>10598600</v>
       </c>
       <c r="I15" s="3">
-        <v>9061500</v>
+        <v>9784800</v>
       </c>
       <c r="J15" s="3">
+        <v>8760500</v>
+      </c>
+      <c r="K15" s="3">
         <v>8610900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -953,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40203700</v>
+        <v>40424200</v>
       </c>
       <c r="E17" s="3">
-        <v>40293900</v>
+        <v>38868200</v>
       </c>
       <c r="F17" s="3">
-        <v>38147200</v>
+        <v>38955400</v>
       </c>
       <c r="G17" s="3">
-        <v>39444100</v>
+        <v>36880000</v>
       </c>
       <c r="H17" s="3">
-        <v>41446600</v>
+        <v>38133800</v>
       </c>
       <c r="I17" s="3">
-        <v>35221300</v>
+        <v>40069800</v>
       </c>
       <c r="J17" s="3">
+        <v>34051200</v>
+      </c>
+      <c r="K17" s="3">
         <v>30242400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>583700</v>
+        <v>1310800</v>
       </c>
       <c r="E18" s="3">
-        <v>399700</v>
+        <v>564300</v>
       </c>
       <c r="F18" s="3">
-        <v>2969700</v>
+        <v>386400</v>
       </c>
       <c r="G18" s="3">
-        <v>2805400</v>
+        <v>2871000</v>
       </c>
       <c r="H18" s="3">
-        <v>2340000</v>
+        <v>2712200</v>
       </c>
       <c r="I18" s="3">
-        <v>1721900</v>
+        <v>2262200</v>
       </c>
       <c r="J18" s="3">
+        <v>1664700</v>
+      </c>
+      <c r="K18" s="3">
         <v>800100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,143 +1017,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>578400</v>
+        <v>790900</v>
       </c>
       <c r="E20" s="3">
-        <v>445100</v>
+        <v>559100</v>
       </c>
       <c r="F20" s="3">
-        <v>-214000</v>
+        <v>430300</v>
       </c>
       <c r="G20" s="3">
-        <v>203200</v>
+        <v>-206900</v>
       </c>
       <c r="H20" s="3">
-        <v>294100</v>
+        <v>196400</v>
       </c>
       <c r="I20" s="3">
-        <v>155500</v>
+        <v>284400</v>
       </c>
       <c r="J20" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K20" s="3">
         <v>377100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12682800</v>
+        <v>12970400</v>
       </c>
       <c r="E21" s="3">
-        <v>12263300</v>
+        <v>12238100</v>
       </c>
       <c r="F21" s="3">
-        <v>14164300</v>
+        <v>11832800</v>
       </c>
       <c r="G21" s="3">
-        <v>13990500</v>
+        <v>13670700</v>
       </c>
       <c r="H21" s="3">
-        <v>12772800</v>
+        <v>13503500</v>
       </c>
       <c r="I21" s="3">
-        <v>10954700</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>12328000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10572400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>777200</v>
+        <v>224800</v>
       </c>
       <c r="E22" s="3">
-        <v>728400</v>
+        <v>751400</v>
       </c>
       <c r="F22" s="3">
-        <v>672700</v>
+        <v>704200</v>
       </c>
       <c r="G22" s="3">
-        <v>644200</v>
+        <v>650400</v>
       </c>
       <c r="H22" s="3">
-        <v>598800</v>
+        <v>622800</v>
       </c>
       <c r="I22" s="3">
-        <v>464400</v>
+        <v>578900</v>
       </c>
       <c r="J22" s="3">
+        <v>448900</v>
+      </c>
+      <c r="K22" s="3">
         <v>346400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>384800</v>
+        <v>1876900</v>
       </c>
       <c r="E23" s="3">
-        <v>116400</v>
+        <v>372000</v>
       </c>
       <c r="F23" s="3">
-        <v>2082900</v>
+        <v>112500</v>
       </c>
       <c r="G23" s="3">
-        <v>2364300</v>
+        <v>2013700</v>
       </c>
       <c r="H23" s="3">
-        <v>2035300</v>
+        <v>2285800</v>
       </c>
       <c r="I23" s="3">
-        <v>1413000</v>
+        <v>1967700</v>
       </c>
       <c r="J23" s="3">
+        <v>1366100</v>
+      </c>
+      <c r="K23" s="3">
         <v>830800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>110300</v>
+        <v>405200</v>
       </c>
       <c r="E24" s="3">
-        <v>22900</v>
+        <v>106600</v>
       </c>
       <c r="F24" s="3">
-        <v>515400</v>
+        <v>22100</v>
       </c>
       <c r="G24" s="3">
-        <v>575200</v>
+        <v>498300</v>
       </c>
       <c r="H24" s="3">
-        <v>490600</v>
+        <v>556100</v>
       </c>
       <c r="I24" s="3">
-        <v>359900</v>
+        <v>474300</v>
       </c>
       <c r="J24" s="3">
+        <v>347900</v>
+      </c>
+      <c r="K24" s="3">
         <v>203500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>274600</v>
+        <v>1471700</v>
       </c>
       <c r="E26" s="3">
-        <v>93500</v>
+        <v>265400</v>
       </c>
       <c r="F26" s="3">
-        <v>1567500</v>
+        <v>90400</v>
       </c>
       <c r="G26" s="3">
-        <v>1789100</v>
+        <v>1515400</v>
       </c>
       <c r="H26" s="3">
-        <v>1544700</v>
+        <v>1729700</v>
       </c>
       <c r="I26" s="3">
-        <v>1053100</v>
+        <v>1493300</v>
       </c>
       <c r="J26" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="K26" s="3">
         <v>627300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>271300</v>
+        <v>1463100</v>
       </c>
       <c r="E27" s="3">
-        <v>92800</v>
+        <v>262300</v>
       </c>
       <c r="F27" s="3">
-        <v>1567500</v>
+        <v>89700</v>
       </c>
       <c r="G27" s="3">
-        <v>1789100</v>
+        <v>1515400</v>
       </c>
       <c r="H27" s="3">
-        <v>1544700</v>
+        <v>1729700</v>
       </c>
       <c r="I27" s="3">
-        <v>1053100</v>
+        <v>1493300</v>
       </c>
       <c r="J27" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="K27" s="3">
         <v>627300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1262,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1343,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-578400</v>
+        <v>-790900</v>
       </c>
       <c r="E32" s="3">
-        <v>-445100</v>
+        <v>-559100</v>
       </c>
       <c r="F32" s="3">
-        <v>214000</v>
+        <v>-430300</v>
       </c>
       <c r="G32" s="3">
-        <v>-203200</v>
+        <v>206900</v>
       </c>
       <c r="H32" s="3">
-        <v>-294100</v>
+        <v>-196400</v>
       </c>
       <c r="I32" s="3">
-        <v>-155500</v>
+        <v>-284400</v>
       </c>
       <c r="J32" s="3">
+        <v>-150400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-377100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>271300</v>
+        <v>1463100</v>
       </c>
       <c r="E33" s="3">
-        <v>92800</v>
+        <v>262300</v>
       </c>
       <c r="F33" s="3">
-        <v>1567500</v>
+        <v>89700</v>
       </c>
       <c r="G33" s="3">
-        <v>1789100</v>
+        <v>1515400</v>
       </c>
       <c r="H33" s="3">
-        <v>1544700</v>
+        <v>1729700</v>
       </c>
       <c r="I33" s="3">
-        <v>1053100</v>
+        <v>1493300</v>
       </c>
       <c r="J33" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="K33" s="3">
         <v>627300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>271300</v>
+        <v>1463100</v>
       </c>
       <c r="E35" s="3">
-        <v>92800</v>
+        <v>262300</v>
       </c>
       <c r="F35" s="3">
-        <v>1567500</v>
+        <v>89700</v>
       </c>
       <c r="G35" s="3">
-        <v>1789100</v>
+        <v>1515400</v>
       </c>
       <c r="H35" s="3">
-        <v>1544700</v>
+        <v>1729700</v>
       </c>
       <c r="I35" s="3">
-        <v>1053100</v>
+        <v>1493300</v>
       </c>
       <c r="J35" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="K35" s="3">
         <v>627300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,251 +1560,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4873200</v>
+        <v>4313000</v>
       </c>
       <c r="E41" s="3">
-        <v>3507400</v>
+        <v>4711300</v>
       </c>
       <c r="F41" s="3">
-        <v>3228700</v>
+        <v>3390900</v>
       </c>
       <c r="G41" s="3">
-        <v>3756000</v>
+        <v>3121400</v>
       </c>
       <c r="H41" s="3">
-        <v>3191700</v>
+        <v>3631200</v>
       </c>
       <c r="I41" s="3">
-        <v>2708500</v>
+        <v>3085700</v>
       </c>
       <c r="J41" s="3">
+        <v>2618500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2241900</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>843900</v>
+        <v>644200</v>
       </c>
       <c r="E42" s="3">
-        <v>278600</v>
+        <v>815800</v>
       </c>
       <c r="F42" s="3">
-        <v>45700</v>
+        <v>269300</v>
       </c>
       <c r="G42" s="3">
-        <v>8300</v>
+        <v>44200</v>
       </c>
       <c r="H42" s="3">
         <v>8000</v>
       </c>
       <c r="I42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>42600</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4352700</v>
+        <v>4653500</v>
       </c>
       <c r="E43" s="3">
-        <v>7193700</v>
+        <v>4208100</v>
       </c>
       <c r="F43" s="3">
-        <v>3747400</v>
+        <v>6954800</v>
       </c>
       <c r="G43" s="3">
-        <v>2916100</v>
+        <v>3622900</v>
       </c>
       <c r="H43" s="3">
-        <v>2806700</v>
+        <v>2819200</v>
       </c>
       <c r="I43" s="3">
-        <v>2153300</v>
+        <v>2713500</v>
       </c>
       <c r="J43" s="3">
+        <v>2081800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1872200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>332300</v>
+        <v>342600</v>
       </c>
       <c r="E44" s="3">
-        <v>360800</v>
+        <v>321300</v>
       </c>
       <c r="F44" s="3">
-        <v>585600</v>
+        <v>348800</v>
       </c>
       <c r="G44" s="3">
-        <v>649700</v>
+        <v>566200</v>
       </c>
       <c r="H44" s="3">
-        <v>821600</v>
+        <v>628200</v>
       </c>
       <c r="I44" s="3">
-        <v>861200</v>
+        <v>794300</v>
       </c>
       <c r="J44" s="3">
+        <v>832600</v>
+      </c>
+      <c r="K44" s="3">
         <v>690300</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>984300</v>
+        <v>938100</v>
       </c>
       <c r="E45" s="3">
-        <v>861500</v>
+        <v>951600</v>
       </c>
       <c r="F45" s="3">
-        <v>803000</v>
+        <v>832900</v>
       </c>
       <c r="G45" s="3">
-        <v>1066000</v>
+        <v>776400</v>
       </c>
       <c r="H45" s="3">
-        <v>920400</v>
+        <v>1030600</v>
       </c>
       <c r="I45" s="3">
-        <v>1425900</v>
+        <v>889900</v>
       </c>
       <c r="J45" s="3">
+        <v>1378600</v>
+      </c>
+      <c r="K45" s="3">
         <v>911800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11386300</v>
+        <v>10891400</v>
       </c>
       <c r="E46" s="3">
-        <v>12202000</v>
+        <v>11008100</v>
       </c>
       <c r="F46" s="3">
-        <v>8410400</v>
+        <v>11796600</v>
       </c>
       <c r="G46" s="3">
-        <v>8396100</v>
+        <v>8131000</v>
       </c>
       <c r="H46" s="3">
-        <v>7748500</v>
+        <v>8117200</v>
       </c>
       <c r="I46" s="3">
-        <v>7149500</v>
+        <v>7491100</v>
       </c>
       <c r="J46" s="3">
+        <v>6912000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5758800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5919600</v>
+        <v>6341400</v>
       </c>
       <c r="E47" s="3">
-        <v>5602300</v>
+        <v>5723000</v>
       </c>
       <c r="F47" s="3">
-        <v>8333100</v>
+        <v>5416200</v>
       </c>
       <c r="G47" s="3">
-        <v>1326600</v>
+        <v>8056300</v>
       </c>
       <c r="H47" s="3">
-        <v>964200</v>
+        <v>1282600</v>
       </c>
       <c r="I47" s="3">
-        <v>826200</v>
+        <v>932200</v>
       </c>
       <c r="J47" s="3">
+        <v>798800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1031600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>61827000</v>
+        <v>55164500</v>
       </c>
       <c r="E48" s="3">
-        <v>66950000</v>
+        <v>59773200</v>
       </c>
       <c r="F48" s="3">
-        <v>67471800</v>
+        <v>64726000</v>
       </c>
       <c r="G48" s="3">
-        <v>65051200</v>
+        <v>65230500</v>
       </c>
       <c r="H48" s="3">
-        <v>64057500</v>
+        <v>62890300</v>
       </c>
       <c r="I48" s="3">
-        <v>65092300</v>
+        <v>61929600</v>
       </c>
       <c r="J48" s="3">
+        <v>62930000</v>
+      </c>
+      <c r="K48" s="3">
         <v>57808100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2042000</v>
+        <v>1998200</v>
       </c>
       <c r="E49" s="3">
-        <v>2061600</v>
+        <v>1974100</v>
       </c>
       <c r="F49" s="3">
-        <v>2001300</v>
+        <v>1993100</v>
       </c>
       <c r="G49" s="3">
-        <v>1761800</v>
+        <v>1934800</v>
       </c>
       <c r="H49" s="3">
-        <v>1616500</v>
+        <v>1703300</v>
       </c>
       <c r="I49" s="3">
-        <v>1355700</v>
+        <v>1562800</v>
       </c>
       <c r="J49" s="3">
+        <v>1310700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1228400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1779,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1806,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3713100</v>
+        <v>3129600</v>
       </c>
       <c r="E52" s="3">
-        <v>4330800</v>
+        <v>3589700</v>
       </c>
       <c r="F52" s="3">
-        <v>4364900</v>
+        <v>4186900</v>
       </c>
       <c r="G52" s="3">
-        <v>4358400</v>
+        <v>4219900</v>
       </c>
       <c r="H52" s="3">
-        <v>4147600</v>
+        <v>4213600</v>
       </c>
       <c r="I52" s="3">
-        <v>2174200</v>
+        <v>4009800</v>
       </c>
       <c r="J52" s="3">
+        <v>2102000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1882700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84888000</v>
+        <v>77525100</v>
       </c>
       <c r="E54" s="3">
-        <v>91146600</v>
+        <v>82068100</v>
       </c>
       <c r="F54" s="3">
-        <v>90581400</v>
+        <v>88118800</v>
       </c>
       <c r="G54" s="3">
-        <v>80894100</v>
+        <v>87572400</v>
       </c>
       <c r="H54" s="3">
-        <v>78534300</v>
+        <v>78206900</v>
       </c>
       <c r="I54" s="3">
-        <v>76598000</v>
+        <v>75925500</v>
       </c>
       <c r="J54" s="3">
+        <v>74053500</v>
+      </c>
+      <c r="K54" s="3">
         <v>67709500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12917800</v>
+        <v>10743100</v>
       </c>
       <c r="E57" s="3">
-        <v>16436000</v>
+        <v>12488600</v>
       </c>
       <c r="F57" s="3">
-        <v>20220400</v>
+        <v>15890000</v>
       </c>
       <c r="G57" s="3">
-        <v>14995500</v>
+        <v>19548700</v>
       </c>
       <c r="H57" s="3">
-        <v>11610600</v>
+        <v>14497400</v>
       </c>
       <c r="I57" s="3">
-        <v>12954400</v>
+        <v>11224900</v>
       </c>
       <c r="J57" s="3">
+        <v>12524100</v>
+      </c>
+      <c r="K57" s="3">
         <v>11467800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7468300</v>
+        <v>4699500</v>
       </c>
       <c r="E58" s="3">
-        <v>19987100</v>
+        <v>7220200</v>
       </c>
       <c r="F58" s="3">
-        <v>15828500</v>
+        <v>19323200</v>
       </c>
       <c r="G58" s="3">
-        <v>16749800</v>
+        <v>15302700</v>
       </c>
       <c r="H58" s="3">
-        <v>19214600</v>
+        <v>16193400</v>
       </c>
       <c r="I58" s="3">
-        <v>20664600</v>
+        <v>18576400</v>
       </c>
       <c r="J58" s="3">
+        <v>19978200</v>
+      </c>
+      <c r="K58" s="3">
         <v>10443900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15621500</v>
+        <v>15392700</v>
       </c>
       <c r="E59" s="3">
-        <v>14430300</v>
+        <v>15102600</v>
       </c>
       <c r="F59" s="3">
-        <v>13827800</v>
+        <v>13951000</v>
       </c>
       <c r="G59" s="3">
-        <v>11578500</v>
+        <v>13368500</v>
       </c>
       <c r="H59" s="3">
-        <v>12991200</v>
+        <v>11193900</v>
       </c>
       <c r="I59" s="3">
-        <v>11248300</v>
+        <v>12559700</v>
       </c>
       <c r="J59" s="3">
+        <v>10874600</v>
+      </c>
+      <c r="K59" s="3">
         <v>9837200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36007500</v>
+        <v>30835300</v>
       </c>
       <c r="E60" s="3">
-        <v>50853400</v>
+        <v>34811400</v>
       </c>
       <c r="F60" s="3">
-        <v>49876700</v>
+        <v>49164100</v>
       </c>
       <c r="G60" s="3">
-        <v>43323800</v>
+        <v>48219900</v>
       </c>
       <c r="H60" s="3">
-        <v>43816400</v>
+        <v>41884700</v>
       </c>
       <c r="I60" s="3">
-        <v>44867300</v>
+        <v>42360900</v>
       </c>
       <c r="J60" s="3">
+        <v>43376900</v>
+      </c>
+      <c r="K60" s="3">
         <v>31748900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3218300</v>
+        <v>599500</v>
       </c>
       <c r="E61" s="3">
-        <v>6022300</v>
+        <v>3111400</v>
       </c>
       <c r="F61" s="3">
-        <v>6076500</v>
+        <v>5822300</v>
       </c>
       <c r="G61" s="3">
-        <v>3561500</v>
+        <v>5874600</v>
       </c>
       <c r="H61" s="3">
-        <v>2038900</v>
+        <v>3443200</v>
       </c>
       <c r="I61" s="3">
-        <v>376400</v>
+        <v>1971100</v>
       </c>
       <c r="J61" s="3">
+        <v>363900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5120400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>494100</v>
+        <v>996600</v>
       </c>
       <c r="E62" s="3">
-        <v>480600</v>
+        <v>477600</v>
       </c>
       <c r="F62" s="3">
-        <v>313400</v>
+        <v>464600</v>
       </c>
       <c r="G62" s="3">
-        <v>239400</v>
+        <v>303000</v>
       </c>
       <c r="H62" s="3">
-        <v>192200</v>
+        <v>231400</v>
       </c>
       <c r="I62" s="3">
-        <v>261600</v>
+        <v>185800</v>
       </c>
       <c r="J62" s="3">
+        <v>253000</v>
+      </c>
+      <c r="K62" s="3">
         <v>282900</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2156,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39763900</v>
+        <v>32483600</v>
       </c>
       <c r="E66" s="3">
-        <v>57397100</v>
+        <v>38443000</v>
       </c>
       <c r="F66" s="3">
-        <v>56266700</v>
+        <v>55490500</v>
       </c>
       <c r="G66" s="3">
-        <v>47124800</v>
+        <v>54397600</v>
       </c>
       <c r="H66" s="3">
-        <v>46047500</v>
+        <v>45559300</v>
       </c>
       <c r="I66" s="3">
-        <v>45505300</v>
+        <v>44517800</v>
       </c>
       <c r="J66" s="3">
+        <v>43993700</v>
+      </c>
+      <c r="K66" s="3">
         <v>37152200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2197,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2250,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2277,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2304,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8457600</v>
+        <v>9647700</v>
       </c>
       <c r="E72" s="3">
-        <v>8198300</v>
+        <v>8176600</v>
       </c>
       <c r="F72" s="3">
-        <v>8685000</v>
+        <v>7926000</v>
       </c>
       <c r="G72" s="3">
-        <v>7727100</v>
+        <v>8396400</v>
       </c>
       <c r="H72" s="3">
-        <v>6139300</v>
+        <v>7470400</v>
       </c>
       <c r="I72" s="3">
-        <v>5483900</v>
+        <v>5935300</v>
       </c>
       <c r="J72" s="3">
+        <v>5301700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4780700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2358,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2385,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2412,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45124100</v>
+        <v>45041500</v>
       </c>
       <c r="E76" s="3">
-        <v>33749500</v>
+        <v>43625100</v>
       </c>
       <c r="F76" s="3">
-        <v>34314800</v>
+        <v>32628400</v>
       </c>
       <c r="G76" s="3">
-        <v>33769400</v>
+        <v>33174900</v>
       </c>
       <c r="H76" s="3">
-        <v>32486800</v>
+        <v>32647600</v>
       </c>
       <c r="I76" s="3">
-        <v>31092600</v>
+        <v>31407600</v>
       </c>
       <c r="J76" s="3">
+        <v>30059800</v>
+      </c>
+      <c r="K76" s="3">
         <v>30557300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2466,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>271300</v>
+        <v>1463100</v>
       </c>
       <c r="E81" s="3">
-        <v>92800</v>
+        <v>262300</v>
       </c>
       <c r="F81" s="3">
-        <v>1567500</v>
+        <v>89700</v>
       </c>
       <c r="G81" s="3">
-        <v>1789100</v>
+        <v>1515400</v>
       </c>
       <c r="H81" s="3">
-        <v>1544700</v>
+        <v>1729700</v>
       </c>
       <c r="I81" s="3">
-        <v>1053100</v>
+        <v>1493300</v>
       </c>
       <c r="J81" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="K81" s="3">
         <v>627300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2539,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11500600</v>
+        <v>10872500</v>
       </c>
       <c r="E83" s="3">
-        <v>11398600</v>
+        <v>11118600</v>
       </c>
       <c r="F83" s="3">
-        <v>11388700</v>
+        <v>11020000</v>
       </c>
       <c r="G83" s="3">
-        <v>10962700</v>
+        <v>11010400</v>
       </c>
       <c r="H83" s="3">
-        <v>10121000</v>
+        <v>10598600</v>
       </c>
       <c r="I83" s="3">
-        <v>9061500</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>9784800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8760500</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2592,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2619,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2646,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2673,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2700,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12622900</v>
+        <v>13255700</v>
       </c>
       <c r="E89" s="3">
-        <v>11070300</v>
+        <v>12203500</v>
       </c>
       <c r="F89" s="3">
-        <v>12511100</v>
+        <v>10702600</v>
       </c>
       <c r="G89" s="3">
-        <v>13074000</v>
+        <v>12095500</v>
       </c>
       <c r="H89" s="3">
-        <v>11647500</v>
+        <v>12639700</v>
       </c>
       <c r="I89" s="3">
-        <v>10480700</v>
+        <v>11260600</v>
       </c>
       <c r="J89" s="3">
+        <v>10132600</v>
+      </c>
+      <c r="K89" s="3">
         <v>9867900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9749500</v>
+        <v>-8144800</v>
       </c>
       <c r="E91" s="3">
-        <v>-15195000</v>
+        <v>-9425600</v>
       </c>
       <c r="F91" s="3">
-        <v>-13803200</v>
+        <v>-14690200</v>
       </c>
       <c r="G91" s="3">
-        <v>-10892300</v>
+        <v>-13344600</v>
       </c>
       <c r="H91" s="3">
-        <v>-11695900</v>
+        <v>-10530400</v>
       </c>
       <c r="I91" s="3">
-        <v>-12879500</v>
+        <v>-11307400</v>
       </c>
       <c r="J91" s="3">
+        <v>-12451600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11555400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2794,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2821,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7025100</v>
+        <v>-8778000</v>
       </c>
       <c r="E94" s="3">
-        <v>-14210100</v>
+        <v>-6791800</v>
       </c>
       <c r="F94" s="3">
-        <v>-13557800</v>
+        <v>-13738100</v>
       </c>
       <c r="G94" s="3">
-        <v>-11178100</v>
+        <v>-13107500</v>
       </c>
       <c r="H94" s="3">
-        <v>-11443900</v>
+        <v>-10806800</v>
       </c>
       <c r="I94" s="3">
-        <v>-14763800</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-11063700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-14273400</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2862,35 +3059,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-228300</v>
       </c>
       <c r="E96" s="3">
-        <v>-604200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-689100</v>
+        <v>-584100</v>
       </c>
       <c r="G96" s="3">
-        <v>-545700</v>
+        <v>-666200</v>
       </c>
       <c r="H96" s="3">
-        <v>-398600</v>
+        <v>-527600</v>
       </c>
       <c r="I96" s="3">
-        <v>-338800</v>
+        <v>-385400</v>
       </c>
       <c r="J96" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-307200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2915,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2942,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2969,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4216900</v>
+        <v>-4886600</v>
       </c>
       <c r="E100" s="3">
-        <v>3395200</v>
+        <v>-4076800</v>
       </c>
       <c r="F100" s="3">
-        <v>508600</v>
+        <v>3282400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1331700</v>
+        <v>491700</v>
       </c>
       <c r="H100" s="3">
-        <v>285800</v>
+        <v>-1287400</v>
       </c>
       <c r="I100" s="3">
-        <v>4749700</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>276300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4591900</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15000</v>
+        <v>10600</v>
       </c>
       <c r="E101" s="3">
-        <v>23300</v>
+        <v>-14500</v>
       </c>
       <c r="F101" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G101" s="3" t="s">
+        <v>22500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>-6000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1365800</v>
+        <v>-398300</v>
       </c>
       <c r="E102" s="3">
-        <v>278700</v>
+        <v>1320400</v>
       </c>
       <c r="F102" s="3">
-        <v>-527300</v>
+        <v>269500</v>
       </c>
       <c r="G102" s="3">
-        <v>564300</v>
+        <v>-509800</v>
       </c>
       <c r="H102" s="3">
-        <v>483200</v>
+        <v>545500</v>
       </c>
       <c r="I102" s="3">
-        <v>466600</v>
+        <v>467200</v>
       </c>
       <c r="J102" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1111700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
